--- a/trunk/documents/Daily Status.xlsx
+++ b/trunk/documents/Daily Status.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="490">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -3858,6 +3858,9 @@
   </si>
   <si>
     <t>8th Feb</t>
+  </si>
+  <si>
+    <t>dd</t>
   </si>
 </sst>
 </file>
@@ -4686,10 +4689,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5170,6 +5173,11 @@
       </c>
       <c r="H19" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="B20" t="s">
+        <v>489</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/documents/Daily Status.xlsx
+++ b/trunk/documents/Daily Status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7965" tabRatio="815" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7965" tabRatio="815" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Training Student Name" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="507">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -3860,7 +3860,58 @@
     <t>8th Feb</t>
   </si>
   <si>
-    <t>dd</t>
+    <t>10th feb</t>
+  </si>
+  <si>
+    <t>Given to sachin</t>
+  </si>
+  <si>
+    <t>3rd Feb</t>
+  </si>
+  <si>
+    <t>1500 Paid 11th Feb</t>
+  </si>
+  <si>
+    <t>Pushpendra Singh</t>
+  </si>
+  <si>
+    <t>pushp.singh94@gmail.com</t>
+  </si>
+  <si>
+    <t>I.I.M.T</t>
+  </si>
+  <si>
+    <t>Quadcopter</t>
+  </si>
+  <si>
+    <t>Umesh</t>
+  </si>
+  <si>
+    <t>umeshnamdev9@gmail.com</t>
+  </si>
+  <si>
+    <t>11th Feb</t>
+  </si>
+  <si>
+    <t>Card Board</t>
+  </si>
+  <si>
+    <t>Card Board Cutting</t>
+  </si>
+  <si>
+    <t>PVC Tape</t>
+  </si>
+  <si>
+    <t>Tape</t>
+  </si>
+  <si>
+    <t>Navneet</t>
+  </si>
+  <si>
+    <t>navneetsharme1996@rediffmail.co.in</t>
+  </si>
+  <si>
+    <t>11Th Feb</t>
   </si>
 </sst>
 </file>
@@ -3932,7 +3983,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3990,6 +4041,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4083,7 +4140,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4259,6 +4316,23 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="3" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="11" borderId="3" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="2" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4565,7 +4639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -4691,8 +4765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5148,8 +5222,8 @@
       <c r="D18" t="s">
         <v>437</v>
       </c>
-      <c r="E18" s="80">
-        <v>42038</v>
+      <c r="E18" s="80" t="s">
+        <v>491</v>
       </c>
       <c r="F18">
         <v>20</v>
@@ -5176,8 +5250,26 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="B20" t="s">
-        <v>489</v>
+      <c r="A20" t="s">
+        <v>504</v>
+      </c>
+      <c r="B20">
+        <v>8375940733</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" t="s">
+        <v>506</v>
+      </c>
+      <c r="F20">
+        <v>400</v>
+      </c>
+      <c r="H20" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -5195,18 +5287,19 @@
     <hyperlink ref="C15" r:id="rId11"/>
     <hyperlink ref="C16" r:id="rId12"/>
     <hyperlink ref="C17" r:id="rId13"/>
+    <hyperlink ref="C20" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId14"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId15"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5466,6 +5559,40 @@
         <v>486</v>
       </c>
     </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>493</v>
+      </c>
+      <c r="B14">
+        <v>9990036755</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="D14" t="s">
+        <v>495</v>
+      </c>
+      <c r="E14" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>497</v>
+      </c>
+      <c r="B15">
+        <v>9540424976</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="D15" t="s">
+        <v>495</v>
+      </c>
+      <c r="E15" t="s">
+        <v>496</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
@@ -5480,6 +5607,8 @@
     <hyperlink ref="C11" r:id="rId10"/>
     <hyperlink ref="C12" r:id="rId11"/>
     <hyperlink ref="C13" r:id="rId12"/>
+    <hyperlink ref="C14" r:id="rId13"/>
+    <hyperlink ref="C15" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5514,10 +5643,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5725,6 +5854,61 @@
       </c>
       <c r="C18">
         <v>500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>489</v>
+      </c>
+      <c r="B19" t="s">
+        <v>490</v>
+      </c>
+      <c r="C19">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>489</v>
+      </c>
+      <c r="B20" t="s">
+        <v>451</v>
+      </c>
+      <c r="C20">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>499</v>
+      </c>
+      <c r="B21" t="s">
+        <v>500</v>
+      </c>
+      <c r="C21">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>499</v>
+      </c>
+      <c r="B22" t="s">
+        <v>501</v>
+      </c>
+      <c r="C22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>502</v>
+      </c>
+      <c r="B23" t="s">
+        <v>503</v>
+      </c>
+      <c r="C23">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -5970,9 +6154,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5988,7 +6172,7 @@
     <col min="9" max="9" width="14.85546875" style="11" customWidth="1"/>
     <col min="10" max="10" width="16.140625" style="11" customWidth="1"/>
     <col min="11" max="11" width="26.42578125" style="13" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="14"/>
+    <col min="12" max="12" width="24.28515625" style="14" customWidth="1"/>
     <col min="13" max="257" width="9.140625" style="15"/>
     <col min="258" max="258" width="27.7109375" style="15" customWidth="1"/>
     <col min="259" max="259" width="15.28515625" style="15" customWidth="1"/>
@@ -6722,35 +6906,35 @@
       <c r="L1" s="9"/>
     </row>
     <row r="2" spans="1:12" ht="13.5" thickBot="1"/>
-    <row r="3" spans="1:12" s="22" customFormat="1" ht="26.25" thickBot="1">
-      <c r="A3" s="16">
+    <row r="3" spans="1:12" s="87" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A3" s="81">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="82" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="83">
         <v>41907</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17">
+      <c r="E3" s="85"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82">
         <v>9555382729</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="81">
         <v>6000</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="81">
         <v>100</v>
       </c>
-      <c r="J3" s="16"/>
-      <c r="K3" s="20" t="s">
-        <v>353</v>
-      </c>
-      <c r="L3" s="21"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="85" t="s">
+        <v>492</v>
+      </c>
+      <c r="L3" s="86"/>
     </row>
     <row r="4" spans="1:12" s="71" customFormat="1" ht="26.25" thickBot="1">
       <c r="A4" s="64">

--- a/trunk/documents/Daily Status.xlsx
+++ b/trunk/documents/Daily Status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7965" tabRatio="815" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7965" tabRatio="815" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Training Student Name" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="509">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -3912,6 +3912,12 @@
   </si>
   <si>
     <t>11Th Feb</t>
+  </si>
+  <si>
+    <t>arun</t>
+  </si>
+  <si>
+    <t>soldering</t>
   </si>
 </sst>
 </file>
@@ -4763,10 +4769,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5269,6 +5275,23 @@
         <v>400</v>
       </c>
       <c r="H20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>507</v>
+      </c>
+      <c r="D21" t="s">
+        <v>508</v>
+      </c>
+      <c r="E21" t="s">
+        <v>506</v>
+      </c>
+      <c r="F21">
+        <v>20</v>
+      </c>
+      <c r="H21" t="s">
         <v>72</v>
       </c>
     </row>

--- a/trunk/documents/Daily Status.xlsx
+++ b/trunk/documents/Daily Status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7965" tabRatio="815" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7965" tabRatio="815" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Training Student Name" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="515">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -2657,9 +2657,6 @@
     <t>Electrician</t>
   </si>
   <si>
-    <t>Amount</t>
-  </si>
-  <si>
     <t>Pending Payment</t>
   </si>
   <si>
@@ -3914,10 +3911,31 @@
     <t>11Th Feb</t>
   </si>
   <si>
-    <t>arun</t>
-  </si>
-  <si>
-    <t>soldering</t>
+    <t>100+1500</t>
+  </si>
+  <si>
+    <t>From Date</t>
+  </si>
+  <si>
+    <t>To Date</t>
+  </si>
+  <si>
+    <t>Expenses Including given to Sir</t>
+  </si>
+  <si>
+    <t>6th Dec 20114</t>
+  </si>
+  <si>
+    <t>12th Feb 2015</t>
+  </si>
+  <si>
+    <t>Lab Income Rs/-</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>Actual Balance in Lab</t>
   </si>
 </sst>
 </file>
@@ -4645,8 +4663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4712,7 +4730,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="61" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G2" s="61">
         <v>5000</v>
@@ -4724,7 +4742,7 @@
         <v>150</v>
       </c>
       <c r="K2" s="61" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -4744,7 +4762,7 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G3">
         <v>5000</v>
@@ -4753,7 +4771,7 @@
         <v>42025</v>
       </c>
       <c r="I3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J3" t="s">
         <v>151</v>
@@ -4769,10 +4787,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4805,10 +4823,10 @@
         <v>15</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>452</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>453</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>36</v>
@@ -4955,7 +4973,7 @@
         <v>27</v>
       </c>
       <c r="F7">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="G7">
         <v>150</v>
@@ -5085,24 +5103,24 @@
         <v>150</v>
       </c>
       <c r="H12" s="72" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B13">
         <v>9582449984</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D13" t="s">
         <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F13">
         <v>300</v>
@@ -5116,19 +5134,19 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B14">
         <v>9811708509</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="D14" t="s">
         <v>365</v>
       </c>
-      <c r="D14" t="s">
-        <v>366</v>
-      </c>
       <c r="E14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F14">
         <v>100</v>
@@ -5148,13 +5166,13 @@
         <v>9711022937</v>
       </c>
       <c r="C15" s="77" t="s">
+        <v>413</v>
+      </c>
+      <c r="D15" s="76" t="s">
         <v>414</v>
       </c>
-      <c r="D15" s="76" t="s">
-        <v>415</v>
-      </c>
       <c r="E15" s="76" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F15" s="76">
         <v>350</v>
@@ -5168,48 +5186,48 @@
     </row>
     <row r="16" spans="1:9" s="78" customFormat="1">
       <c r="A16" s="78" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B16" s="78">
         <v>9990180164</v>
       </c>
       <c r="C16" s="79" t="s">
+        <v>422</v>
+      </c>
+      <c r="D16" s="78" t="s">
         <v>423</v>
       </c>
-      <c r="D16" s="78" t="s">
+      <c r="E16" s="78" t="s">
         <v>424</v>
-      </c>
-      <c r="E16" s="78" t="s">
-        <v>425</v>
       </c>
       <c r="F16" s="78">
         <v>1500</v>
       </c>
       <c r="G16" s="78" t="s">
+        <v>425</v>
+      </c>
+      <c r="H16" s="78" t="s">
+        <v>425</v>
+      </c>
+      <c r="I16" s="78" t="s">
         <v>426</v>
-      </c>
-      <c r="H16" s="78" t="s">
-        <v>426</v>
-      </c>
-      <c r="I16" s="78" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B17">
         <v>9210036786</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D17" t="s">
+        <v>430</v>
+      </c>
+      <c r="E17" t="s">
         <v>431</v>
-      </c>
-      <c r="E17" t="s">
-        <v>432</v>
       </c>
       <c r="F17">
         <v>250</v>
@@ -5223,13 +5241,13 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
+        <v>435</v>
+      </c>
+      <c r="D18" t="s">
         <v>436</v>
       </c>
-      <c r="D18" t="s">
-        <v>437</v>
-      </c>
       <c r="E18" s="80" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F18">
         <v>20</v>
@@ -5243,10 +5261,10 @@
         <v>9711307405</v>
       </c>
       <c r="D19" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E19" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F19">
         <v>200</v>
@@ -5257,41 +5275,24 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B20">
         <v>8375940733</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F20">
         <v>400</v>
       </c>
       <c r="H20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" t="s">
-        <v>507</v>
-      </c>
-      <c r="D21" t="s">
-        <v>508</v>
-      </c>
-      <c r="E21" t="s">
-        <v>506</v>
-      </c>
-      <c r="F21">
-        <v>20</v>
-      </c>
-      <c r="H21" t="s">
         <v>72</v>
       </c>
     </row>
@@ -5476,144 +5477,144 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B8">
         <v>9990180164</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="D8" t="s">
         <v>360</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>361</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>362</v>
-      </c>
-      <c r="F8" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B9">
         <v>9411889405</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="D9" t="s">
         <v>410</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>411</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>412</v>
-      </c>
-      <c r="F9" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B10">
         <v>9555433468</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="D10" t="s">
         <v>443</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>444</v>
-      </c>
-      <c r="E10" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B11">
         <v>9654818693</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="D11" t="s">
+        <v>453</v>
+      </c>
+      <c r="E11" t="s">
         <v>447</v>
-      </c>
-      <c r="D11" t="s">
-        <v>454</v>
-      </c>
-      <c r="E11" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B12">
         <v>9891358561</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="D12" t="s">
         <v>467</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>468</v>
-      </c>
-      <c r="E12" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B13">
         <v>8765633150</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D13" t="s">
         <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B14">
         <v>9990036755</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="D14" t="s">
         <v>494</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>495</v>
-      </c>
-      <c r="E14" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B15">
         <v>9540424976</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D15" t="s">
+        <v>494</v>
+      </c>
+      <c r="E15" t="s">
         <v>495</v>
-      </c>
-      <c r="E15" t="s">
-        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -5639,24 +5640,60 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>343</v>
+    <row r="1" spans="1:6" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B2" t="s">
+        <v>511</v>
+      </c>
+      <c r="C2">
+        <v>31253</v>
+      </c>
+      <c r="D2">
+        <v>29284</v>
+      </c>
+      <c r="E2">
+        <v>1969</v>
+      </c>
+      <c r="F2">
+        <v>1990</v>
       </c>
     </row>
   </sheetData>
@@ -5668,8 +5705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5689,7 +5726,7 @@
         <v>57</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5782,10 +5819,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C10">
         <v>50</v>
@@ -5793,10 +5830,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C11">
         <v>30</v>
@@ -5804,7 +5841,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
@@ -5815,10 +5852,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
+        <v>427</v>
+      </c>
+      <c r="B13" t="s">
         <v>428</v>
-      </c>
-      <c r="B13" t="s">
-        <v>429</v>
       </c>
       <c r="C13">
         <v>20</v>
@@ -5826,10 +5863,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
+        <v>437</v>
+      </c>
+      <c r="B14" t="s">
         <v>438</v>
-      </c>
-      <c r="B14" t="s">
-        <v>439</v>
       </c>
       <c r="C14">
         <v>1000</v>
@@ -5837,10 +5874,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B15" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C15">
         <v>105</v>
@@ -5848,10 +5885,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B16" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C16">
         <v>20</v>
@@ -5859,7 +5896,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B17" t="s">
         <v>62</v>
@@ -5870,10 +5907,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>449</v>
+      </c>
+      <c r="B18" t="s">
         <v>450</v>
-      </c>
-      <c r="B18" t="s">
-        <v>451</v>
       </c>
       <c r="C18">
         <v>500</v>
@@ -5881,10 +5918,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>488</v>
+      </c>
+      <c r="B19" t="s">
         <v>489</v>
-      </c>
-      <c r="B19" t="s">
-        <v>490</v>
       </c>
       <c r="C19">
         <v>1200</v>
@@ -5892,10 +5929,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B20" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C20">
         <v>500</v>
@@ -5903,10 +5940,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>498</v>
+      </c>
+      <c r="B21" t="s">
         <v>499</v>
-      </c>
-      <c r="B21" t="s">
-        <v>500</v>
       </c>
       <c r="C21">
         <v>300</v>
@@ -5914,10 +5951,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B22" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C22">
         <v>100</v>
@@ -5925,10 +5962,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
+        <v>501</v>
+      </c>
+      <c r="B23" t="s">
         <v>502</v>
-      </c>
-      <c r="B23" t="s">
-        <v>503</v>
       </c>
       <c r="C23">
         <v>50</v>
@@ -6058,7 +6095,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B14">
         <v>750</v>
@@ -6066,7 +6103,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B15">
         <v>75</v>
@@ -6074,7 +6111,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B16">
         <v>380</v>
@@ -6082,7 +6119,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B17">
         <v>150</v>
@@ -6090,7 +6127,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B18">
         <v>300</v>
@@ -6098,7 +6135,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B19">
         <v>400</v>
@@ -6106,7 +6143,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B20">
         <v>300</v>
@@ -6114,7 +6151,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B21">
         <v>500</v>
@@ -6122,7 +6159,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B22">
         <v>600</v>
@@ -6130,7 +6167,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B23">
         <v>800</v>
@@ -6146,7 +6183,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B25">
         <v>1250</v>
@@ -6154,7 +6191,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B26">
         <v>1450</v>
@@ -6162,7 +6199,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B27">
         <v>1100</v>
@@ -6178,8 +6215,8 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6950,12 +6987,12 @@
       <c r="H3" s="81">
         <v>6000</v>
       </c>
-      <c r="I3" s="81">
-        <v>100</v>
+      <c r="I3" s="81" t="s">
+        <v>506</v>
       </c>
       <c r="J3" s="81"/>
       <c r="K3" s="85" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="L3" s="86"/>
     </row>
@@ -6987,7 +7024,7 @@
       </c>
       <c r="J4" s="64"/>
       <c r="K4" s="68" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L4" s="70"/>
     </row>
@@ -7051,7 +7088,7 @@
       </c>
       <c r="J6" s="23"/>
       <c r="K6" s="27" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L6" s="29"/>
     </row>
@@ -7145,7 +7182,7 @@
       </c>
       <c r="J9" s="31"/>
       <c r="K9" s="35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L9" s="38"/>
     </row>
@@ -7273,7 +7310,7 @@
       </c>
       <c r="J13" s="16"/>
       <c r="K13" s="20" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L13" s="21"/>
     </row>
@@ -7305,7 +7342,7 @@
       </c>
       <c r="J14" s="16"/>
       <c r="K14" s="20" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L14" s="21"/>
     </row>
@@ -7337,7 +7374,7 @@
       </c>
       <c r="J15" s="23"/>
       <c r="K15" s="68" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L15" s="29"/>
     </row>
@@ -7365,7 +7402,7 @@
       </c>
       <c r="J16" s="31"/>
       <c r="K16" s="37" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L16" s="38"/>
     </row>
@@ -7397,7 +7434,7 @@
       </c>
       <c r="J17" s="31"/>
       <c r="K17" s="37" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L17" s="38"/>
     </row>
@@ -7431,7 +7468,7 @@
       </c>
       <c r="J18" s="43"/>
       <c r="K18" s="37" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L18" s="46"/>
     </row>
@@ -7739,7 +7776,7 @@
     </row>
     <row r="25" spans="1:3" s="10" customFormat="1" ht="15">
       <c r="A25" s="74" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C25" s="10">
         <v>546</v>
@@ -7747,7 +7784,7 @@
     </row>
     <row r="26" spans="1:3" ht="15">
       <c r="A26" s="54" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C26" s="15">
         <v>1820</v>
@@ -7755,7 +7792,7 @@
     </row>
     <row r="27" spans="1:3" s="10" customFormat="1" ht="15">
       <c r="A27" s="74" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C27" s="10">
         <v>2041</v>
@@ -7763,7 +7800,7 @@
     </row>
     <row r="28" spans="1:3" s="10" customFormat="1" ht="15">
       <c r="A28" s="74" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C28" s="10">
         <v>1040</v>
@@ -7771,7 +7808,7 @@
     </row>
     <row r="29" spans="1:3" s="10" customFormat="1" ht="15">
       <c r="A29" s="74" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C29" s="10">
         <v>1000</v>
@@ -7779,7 +7816,7 @@
     </row>
     <row r="30" spans="1:3" s="10" customFormat="1" ht="15">
       <c r="A30" s="74" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C30" s="10">
         <v>1950</v>
@@ -7797,7 +7834,7 @@
     </row>
     <row r="33" spans="1:3" s="63" customFormat="1" ht="15">
       <c r="A33" s="57" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C33" s="63">
         <v>650</v>
@@ -7805,7 +7842,7 @@
     </row>
     <row r="34" spans="1:3" ht="15">
       <c r="A34" s="54" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C34" s="15">
         <v>682</v>
@@ -7823,7 +7860,7 @@
     </row>
     <row r="37" spans="1:3" ht="15">
       <c r="A37" s="54" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C37" s="15">
         <v>1079</v>
@@ -7831,7 +7868,7 @@
     </row>
     <row r="38" spans="1:3" ht="15">
       <c r="A38" s="54" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C38" s="15">
         <v>780</v>
@@ -7839,7 +7876,7 @@
     </row>
     <row r="39" spans="1:3" ht="15">
       <c r="A39" s="54" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C39" s="15">
         <v>1235</v>
@@ -7847,7 +7884,7 @@
     </row>
     <row r="40" spans="1:3" ht="15">
       <c r="A40" s="54" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C40" s="15">
         <v>500</v>
@@ -7855,7 +7892,7 @@
     </row>
     <row r="41" spans="1:3" ht="15">
       <c r="A41" s="54" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C41" s="15">
         <v>1365</v>
@@ -7863,7 +7900,7 @@
     </row>
     <row r="42" spans="1:3" s="10" customFormat="1" ht="15">
       <c r="A42" s="74" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C42" s="10">
         <v>2365</v>
@@ -7876,7 +7913,7 @@
     </row>
     <row r="44" spans="1:3" s="10" customFormat="1" ht="15">
       <c r="A44" s="74" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C44" s="10">
         <v>665</v>
@@ -7897,7 +7934,7 @@
     </row>
     <row r="47" spans="1:3" ht="15">
       <c r="A47" s="54" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C47" s="15">
         <v>575</v>
@@ -8047,7 +8084,7 @@
     </row>
     <row r="77" spans="1:3" ht="15">
       <c r="A77" s="54" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C77" s="15">
         <v>780</v>
@@ -8055,7 +8092,7 @@
     </row>
     <row r="78" spans="1:3" ht="15">
       <c r="A78" s="54" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C78" s="15">
         <v>910</v>
@@ -8071,7 +8108,7 @@
     </row>
     <row r="80" spans="1:3" ht="15">
       <c r="A80" s="54" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C80" s="15">
         <v>1066</v>
@@ -8087,7 +8124,7 @@
     </row>
     <row r="82" spans="1:3" ht="15">
       <c r="A82" s="54" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C82" s="15">
         <v>1196</v>
@@ -8095,7 +8132,7 @@
     </row>
     <row r="83" spans="1:3" ht="15">
       <c r="A83" s="54" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C83" s="15">
         <v>936</v>
@@ -8108,7 +8145,7 @@
     </row>
     <row r="85" spans="1:3" ht="15">
       <c r="A85" s="54" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C85" s="15">
         <v>975</v>
@@ -8129,7 +8166,7 @@
     </row>
     <row r="88" spans="1:3" ht="15">
       <c r="A88" s="54" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C88" s="15">
         <v>1040</v>
@@ -8137,7 +8174,7 @@
     </row>
     <row r="89" spans="1:3" ht="15">
       <c r="A89" s="54" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C89" s="15">
         <v>975</v>
@@ -8145,7 +8182,7 @@
     </row>
     <row r="90" spans="1:3" ht="15">
       <c r="A90" s="54" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C90" s="15">
         <v>1235</v>
@@ -8153,7 +8190,7 @@
     </row>
     <row r="91" spans="1:3" ht="15">
       <c r="A91" s="54" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C91" s="15">
         <v>1430</v>
@@ -8161,7 +8198,7 @@
     </row>
     <row r="92" spans="1:3" ht="15">
       <c r="A92" s="54" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C92" s="15">
         <v>1066</v>
@@ -8169,7 +8206,7 @@
     </row>
     <row r="93" spans="1:3" ht="15">
       <c r="A93" s="54" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C93" s="15">
         <v>910</v>
@@ -8182,7 +8219,7 @@
     </row>
     <row r="95" spans="1:3" ht="15">
       <c r="A95" s="54" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C95" s="15">
         <v>1000</v>
@@ -8190,7 +8227,7 @@
     </row>
     <row r="96" spans="1:3" ht="15">
       <c r="A96" s="54" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C96" s="15">
         <v>1430</v>
@@ -8198,7 +8235,7 @@
     </row>
     <row r="97" spans="1:3" ht="15">
       <c r="A97" s="54" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C97" s="15">
         <v>1065</v>
@@ -8219,7 +8256,7 @@
     </row>
     <row r="100" spans="1:3" ht="15">
       <c r="A100" s="54" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C100" s="15">
         <v>3475</v>
@@ -8232,7 +8269,7 @@
     </row>
     <row r="102" spans="1:3" ht="15">
       <c r="A102" s="54" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C102" s="15">
         <v>3035</v>
@@ -8253,7 +8290,7 @@
     </row>
     <row r="106" spans="1:3" ht="15">
       <c r="A106" s="54" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C106" s="15">
         <v>975</v>
@@ -8269,7 +8306,7 @@
     </row>
     <row r="108" spans="1:3" ht="15">
       <c r="A108" s="54" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C108" s="15">
         <v>975</v>
@@ -8277,7 +8314,7 @@
     </row>
     <row r="109" spans="1:3" ht="15">
       <c r="A109" s="54" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C109" s="15">
         <v>675</v>
@@ -8285,7 +8322,7 @@
     </row>
     <row r="110" spans="1:3" ht="15">
       <c r="A110" s="54" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C110" s="15">
         <v>975</v>
@@ -8293,7 +8330,7 @@
     </row>
     <row r="111" spans="1:3" ht="15">
       <c r="A111" s="54" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C111" s="15">
         <v>750</v>
@@ -8309,7 +8346,7 @@
     </row>
     <row r="113" spans="1:3" ht="15">
       <c r="A113" s="54" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C113" s="15">
         <v>300</v>
@@ -8338,7 +8375,7 @@
     </row>
     <row r="117" spans="1:3" ht="15">
       <c r="A117" s="54" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C117" s="15">
         <v>1365</v>
@@ -8346,7 +8383,7 @@
     </row>
     <row r="118" spans="1:3" ht="15">
       <c r="A118" s="54" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C118" s="15">
         <v>1846</v>
@@ -8404,7 +8441,7 @@
     </row>
     <row r="127" spans="1:3" ht="15">
       <c r="A127" s="54" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C127" s="15">
         <v>2067</v>
@@ -8563,7 +8600,7 @@
     </row>
     <row r="155" spans="1:3" ht="15">
       <c r="A155" s="54" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C155" s="15">
         <v>3240</v>
@@ -8579,7 +8616,7 @@
     </row>
     <row r="157" spans="1:3" ht="15">
       <c r="A157" s="54" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C157" s="15">
         <v>3900</v>
@@ -8707,7 +8744,7 @@
     </row>
     <row r="179" spans="1:3" ht="15">
       <c r="A179" s="54" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C179" s="15">
         <v>2170</v>
@@ -8715,7 +8752,7 @@
     </row>
     <row r="180" spans="1:3" ht="15">
       <c r="A180" s="54" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C180" s="15">
         <v>2390</v>
@@ -8728,7 +8765,7 @@
     </row>
     <row r="182" spans="1:3" ht="15">
       <c r="A182" s="54" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C182" s="15">
         <v>2870</v>
@@ -8746,7 +8783,7 @@
     </row>
     <row r="185" spans="1:3" ht="15">
       <c r="A185" s="54" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C185" s="15">
         <v>2160</v>
@@ -8802,7 +8839,7 @@
     </row>
     <row r="196" spans="1:3" ht="15">
       <c r="A196" s="54" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C196" s="15">
         <v>4030</v>
@@ -8818,7 +8855,7 @@
     </row>
     <row r="198" spans="1:3" ht="15">
       <c r="A198" s="54" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C198" s="15">
         <v>3800</v>
@@ -8826,7 +8863,7 @@
     </row>
     <row r="199" spans="1:3" ht="15">
       <c r="A199" s="54" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C199" s="15">
         <v>3670</v>
@@ -8834,7 +8871,7 @@
     </row>
     <row r="200" spans="1:3" ht="15">
       <c r="A200" s="54" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C200" s="15">
         <v>4280</v>
@@ -8847,7 +8884,7 @@
     </row>
     <row r="202" spans="1:3" ht="15">
       <c r="A202" s="54" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C202" s="15">
         <v>3865</v>
@@ -8855,7 +8892,7 @@
     </row>
     <row r="203" spans="1:3" ht="15">
       <c r="A203" s="54" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C203" s="15">
         <v>3790</v>
@@ -8863,7 +8900,7 @@
     </row>
     <row r="204" spans="1:3" ht="15">
       <c r="A204" s="54" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C204" s="15">
         <v>4290</v>
@@ -8879,7 +8916,7 @@
     </row>
     <row r="207" spans="1:3" ht="15">
       <c r="A207" s="54" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C207" s="15">
         <v>3870</v>
@@ -8887,7 +8924,7 @@
     </row>
     <row r="208" spans="1:3" ht="15">
       <c r="A208" s="54" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C208" s="15">
         <v>4800</v>
@@ -8895,7 +8932,7 @@
     </row>
     <row r="209" spans="1:3" ht="15">
       <c r="A209" s="54" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C209" s="15">
         <v>4600</v>
@@ -8934,7 +8971,7 @@
     </row>
     <row r="217" spans="1:3" ht="15">
       <c r="A217" s="54" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C217" s="15">
         <v>2650</v>
@@ -8947,7 +8984,7 @@
     </row>
     <row r="219" spans="1:3" ht="15">
       <c r="A219" s="54" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C219" s="15">
         <v>1760</v>

--- a/trunk/documents/Daily Status.xlsx
+++ b/trunk/documents/Daily Status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7965" tabRatio="815" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7965" tabRatio="815" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Training Student Name" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="519">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -3936,6 +3936,18 @@
   </si>
   <si>
     <t>Actual Balance in Lab</t>
+  </si>
+  <si>
+    <t>Ayushi Gupta</t>
+  </si>
+  <si>
+    <t>ayushigauri18@gmail.com</t>
+  </si>
+  <si>
+    <t>G.U</t>
+  </si>
+  <si>
+    <t>Tabbaco Tracking Asp.net</t>
   </si>
 </sst>
 </file>
@@ -5320,10 +5332,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5615,6 +5627,23 @@
       </c>
       <c r="E15" t="s">
         <v>495</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>515</v>
+      </c>
+      <c r="B16">
+        <v>7042248420</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="D16" t="s">
+        <v>517</v>
+      </c>
+      <c r="E16" t="s">
+        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -5633,6 +5662,7 @@
     <hyperlink ref="C13" r:id="rId12"/>
     <hyperlink ref="C14" r:id="rId13"/>
     <hyperlink ref="C15" r:id="rId14"/>
+    <hyperlink ref="C16" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5642,7 +5672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
